--- a/pred_ohlcv/54_21/2019-11-21 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 ZRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24646.8125</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>24636.8075</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>27943.1965</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>27962.1065</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>27962.1065</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>27962.1065</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>27962.1065</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>30027.0014</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>30558.4214</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>55387.8105</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>55387.8105</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>55387.8105</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>54545.1405</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>54545.1405</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>54545.1405</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>51040.5803</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>51040.5803</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>76586.68862327044</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>78393.73192327045</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>77392.20752327044</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>77059.75112327044</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>76777.58992327044</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>64692.19312327044</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>64692.19312327044</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>62629.80612327043</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>62418.82182327044</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">

--- a/pred_ohlcv/54_21/2019-11-21 ZRX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-21 ZRX ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>22302.9645</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>24646.8125</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -626,7 +626,7 @@
         <v>24636.8075</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>27943.1965</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>27952.1065</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -912,7 +912,7 @@
         <v>27962.1065</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>27962.1065</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>27962.1065</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>27962.1065</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>28513.3163</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>28513.3163</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>30027.0014</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>30558.4214</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>58205.8327</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>58205.8327</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>58802.7969</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>55412.3197</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>51766.7595</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>51704.0892</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>55387.8105</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>55387.8105</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>55387.8105</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>55387.8105</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>55387.8105</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>55387.8105</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>54545.1405</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>54545.1405</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>54545.1405</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>51040.5803</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>51040.5803</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>77084.16012327044</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>76586.68862327044</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>76559.39082327044</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>78393.73192327045</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>78398.96282327044</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>78398.96282327044</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>77392.20752327044</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>77059.75112327044</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>76777.58992327044</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>64692.19312327044</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
